--- a/NformTester/NformTester/Keywordscripts/600.20.20.190_AutomaticSendShouldBeCheckedByDefault.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.190_AutomaticSendShouldBeCheckedByDefault.xlsx
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8516" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8528" uniqueCount="956">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4555,74 +4555,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4634,7 +4566,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4911,10 +4843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5123,7 +5055,7 @@
         <v>909</v>
       </c>
       <c r="B7" s="7">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -6779,14 +6711,12 @@
         <v>412</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>415</v>
+        <v>98</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>950</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -6799,13 +6729,13 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>412</v>
+        <v>908</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>2</v>
@@ -6823,13 +6753,13 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>951</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>944</v>
+        <v>908</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>2</v>
@@ -6847,16 +6777,20 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="F71" s="4">
-        <v>5</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+        <v>412</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>950</v>
+      </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -6875,7 +6809,7 @@
         <v>412</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>2</v>
@@ -6888,16 +6822,22 @@
       <c r="M72" s="4"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="3:14" ht="15">
+    <row r="73" spans="3:14">
       <c r="C73" s="4">
         <v>72</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="D73" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -6910,91 +6850,81 @@
       <c r="C74" s="4">
         <v>73</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>939</v>
+      <c r="D74" s="8" t="s">
+        <v>931</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="F74" s="18">
-        <v>5</v>
-      </c>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="19"/>
+        <v>876</v>
+      </c>
+      <c r="F74" s="4">
+        <v>5</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="6"/>
     </row>
     <row r="75" spans="3:14">
       <c r="C75" s="4">
         <v>74</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="8" t="s">
         <v>929</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="19"/>
+        <v>412</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="3:14">
+    <row r="76" spans="3:14" ht="15">
       <c r="C76" s="4">
         <v>75</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>941</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="19"/>
+      <c r="D76" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="6"/>
     </row>
     <row r="77" spans="3:14">
       <c r="C77" s="4">
         <v>76</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>696</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>936</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="F77" s="18">
+        <v>5</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
       <c r="K77" s="18"/>
@@ -7002,24 +6932,24 @@
       <c r="M77" s="18"/>
       <c r="N77" s="19"/>
     </row>
-    <row r="78" spans="3:14" ht="14.25">
+    <row r="78" spans="3:14">
       <c r="C78" s="4">
         <v>77</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>942</v>
+        <v>18</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="20"/>
-      <c r="I78" s="18"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="18"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
@@ -7033,17 +6963,17 @@
       <c r="D79" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="E79" s="18" t="s">
-        <v>703</v>
+      <c r="E79" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="11"/>
-      <c r="I79" s="18"/>
+      <c r="I79" s="11"/>
       <c r="J79" s="18"/>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
@@ -7061,34 +6991,38 @@
         <v>942</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>98</v>
+        <v>696</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="I80" s="18"/>
       <c r="J80" s="18"/>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
       <c r="N80" s="19"/>
     </row>
-    <row r="81" spans="3:14">
+    <row r="81" spans="3:14" ht="14.25">
       <c r="C81" s="4">
         <v>80</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="F81" s="18">
-        <v>3</v>
-      </c>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+        <v>942</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="20"/>
       <c r="I81" s="18"/>
       <c r="J81" s="18"/>
       <c r="K81" s="18"/>
@@ -7096,90 +7030,88 @@
       <c r="M81" s="18"/>
       <c r="N81" s="19"/>
     </row>
-    <row r="82" spans="3:14" ht="15">
+    <row r="82" spans="3:14">
       <c r="C82" s="4">
         <v>81</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="6"/>
+      <c r="D82" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="19"/>
     </row>
     <row r="83" spans="3:14">
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G83" s="4" t="s">
+      <c r="D83" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H83" s="11"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="6"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="19"/>
     </row>
     <row r="84" spans="3:14">
       <c r="C84" s="4">
         <v>83</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="6"/>
+      <c r="D84" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="F84" s="18">
+        <v>3</v>
+      </c>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="3:14">
+    <row r="85" spans="3:14" ht="15">
       <c r="C85" s="4">
         <v>84</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="D85" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -7193,19 +7125,17 @@
       <c r="D86" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>506</v>
+      <c r="E86" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>551</v>
+        <v>159</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="I86" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -7219,24 +7149,18 @@
       <c r="D87" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>506</v>
+      <c r="E87" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>927</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="J87" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -7253,7 +7177,7 @@
         <v>506</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>2</v>
@@ -7277,40 +7201,120 @@
         <v>506</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>98</v>
+        <v>551</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="I89" s="11"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="6"/>
     </row>
+    <row r="90" spans="3:14">
+      <c r="C90" s="4">
+        <v>89</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="3:14">
+      <c r="C91" s="4">
+        <v>90</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="6"/>
+    </row>
+    <row r="92" spans="3:14">
+      <c r="C92" s="4">
+        <v>91</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N89">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N92">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78:G89 G2:G76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81:G92 G2:G79">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83:D89 D67:D72 D58:D64 D75 D81 D3 D6:D20 D22:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:D92 D22:D56 D58:D64 D78 D84 D3 D6:D20 D67:D75">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F92">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E92">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
